--- a/logs/2024/Snow Country - Yasanuri Kawabata.xlsx
+++ b/logs/2024/Snow Country - Yasanuri Kawabata.xlsx
@@ -430,7 +430,7 @@
         <v>45553</v>
       </c>
       <c r="B1" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45554</v>
       </c>
       <c r="B2" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45555</v>
       </c>
       <c r="B3" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45557</v>
       </c>
       <c r="B4" t="n">
-        <v>165</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45558</v>
       </c>
       <c r="B5" t="n">
-        <v>194</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45561</v>
       </c>
       <c r="B6" t="n">
-        <v>229</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45562</v>
       </c>
       <c r="B7" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>45563</v>
       </c>
       <c r="B8" t="n">
-        <v>304</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
